--- a/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
+++ b/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/Stock_Analysis_Project/StockAnalytics_PandasGroup/Roadmap_TaskList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31688FC8-F776-924F-B128-AE9058A1C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23249450-4EF7-7849-8C3A-D62496038FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29560" yWindow="500" windowWidth="36100" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>PROJECT TIMELINE TEMPLATE</t>
   </si>
@@ -112,12 +112,6 @@
     <t>completed</t>
   </si>
   <si>
-    <t>- HTML | CSS draft</t>
-  </si>
-  <si>
-    <t>- HTML | CSS develop more</t>
-  </si>
-  <si>
     <t>Luan</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
     <t>Deeper diving</t>
   </si>
   <si>
-    <t>Brandon</t>
-  </si>
-  <si>
     <t>DAY 5</t>
   </si>
   <si>
@@ -151,15 +142,6 @@
     <t>James</t>
   </si>
   <si>
-    <t>- HTML | CSS develop to pretty layout per direction</t>
-  </si>
-  <si>
-    <t>Ariana</t>
-  </si>
-  <si>
-    <t>- Push all into domain</t>
-  </si>
-  <si>
     <t>FINAL DAY</t>
   </si>
   <si>
@@ -181,29 +163,38 @@
     <t>- Plotting all bubble charts</t>
   </si>
   <si>
-    <t>Tracie / James</t>
-  </si>
-  <si>
     <t>- Plotting all boxplot</t>
   </si>
   <si>
-    <t>- Flask | Api | HTML</t>
-  </si>
-  <si>
-    <t>- Plotting to be pretty finished</t>
-  </si>
-  <si>
     <t>by Monday, 7pm</t>
   </si>
   <si>
-    <t>Luan / Ari</t>
+    <t>Tracie | Luan</t>
+  </si>
+  <si>
+    <t>- HTML | CSS draft (landing page)</t>
+  </si>
+  <si>
+    <t>- HTML | CSS develop more &amp; complete</t>
+  </si>
+  <si>
+    <t>- html | css files for 3 content pages &amp; link to landing pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Flask | Api </t>
+  </si>
+  <si>
+    <t>- fix javascript problem</t>
+  </si>
+  <si>
+    <t>- Push all into domain if have time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="51">
+  <fonts count="50">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -401,12 +392,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FFE69138"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFB85B22"/>
       <name val="Roboto"/>
@@ -445,12 +430,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF8E458D"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF351C75"/>
       <name val="Roboto"/>
@@ -479,6 +458,12 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Roboto"/>
     </font>
   </fonts>
@@ -568,7 +553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -837,11 +822,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -984,37 +978,31 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="39" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="43" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="45" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="46" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="45" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="48" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="46" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1029,66 +1017,35 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1101,39 +1058,84 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="48" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1457,7 +1459,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1489,15 +1491,15 @@
     </row>
     <row r="2" spans="1:11" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="1"/>
@@ -1626,435 +1628,433 @@
     </row>
     <row r="11" spans="1:11" ht="21" customHeight="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="72" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="69" t="s">
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="70"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="89" t="s">
+      <c r="J11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="95" t="s">
+      <c r="K11" s="66" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="21" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="75"/>
+      <c r="B12" s="73"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="69" t="s">
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="70"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="96"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="1:11" ht="21" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="75"/>
+      <c r="B13" s="73"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="69" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="90"/>
-      <c r="K13" s="96"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="21" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="75"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="69" t="s">
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="70"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="90"/>
-      <c r="K14" s="96"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="1:11" ht="21" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="75"/>
+      <c r="B15" s="73"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="67" t="s">
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="68"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="96"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="21" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="95" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="71" t="s">
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="70"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="46" t="s">
         <v>24</v>
       </c>
       <c r="J16" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="96"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="75"/>
+      <c r="B17" s="73"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="70"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="71"/>
       <c r="I17" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="96"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="75"/>
+      <c r="B18" s="73"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="48" t="s">
-        <v>28</v>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="100" t="s">
+        <v>26</v>
       </c>
       <c r="J18" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="96"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="75"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="70"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="71"/>
       <c r="I19" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="96"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="73"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="93" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="94"/>
       <c r="I20" s="44" t="s">
         <v>17</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="96"/>
+        <v>29</v>
+      </c>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="1:11" ht="21" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="92" t="s">
-        <v>32</v>
+      <c r="B21" s="79" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="42"/>
-      <c r="D21" s="93" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="46" t="s">
+      <c r="D21" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="71"/>
+      <c r="I21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K21" s="96"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="75"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="70"/>
-      <c r="I22" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="50" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="71"/>
+      <c r="I22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="96"/>
+      <c r="K22" s="67"/>
     </row>
     <row r="23" spans="1:11" ht="21" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="75"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="102" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H23" s="103"/>
       <c r="I23" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="96"/>
-    </row>
-    <row r="24" spans="1:11" ht="21" customHeight="1">
+        <v>35</v>
+      </c>
+      <c r="J23" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="67"/>
+    </row>
+    <row r="24" spans="1:11" s="65" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="17"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="105" t="s">
-        <v>51</v>
+      <c r="B24" s="73"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="102" t="s">
+        <v>48</v>
       </c>
       <c r="H24" s="106"/>
-      <c r="I24" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="96"/>
-    </row>
-    <row r="25" spans="1:11" ht="28" customHeight="1">
+      <c r="I24" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="105"/>
+      <c r="K24" s="67"/>
+    </row>
+    <row r="25" spans="1:11" ht="21" customHeight="1">
       <c r="A25" s="17"/>
-      <c r="B25" s="85" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="70"/>
-      <c r="I25" s="43" t="s">
+      <c r="B25" s="73"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="107" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="105"/>
+      <c r="K25" s="67"/>
+    </row>
+    <row r="26" spans="1:11" ht="24" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="89"/>
+      <c r="I26" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="53"/>
-      <c r="K25" s="96"/>
-    </row>
-    <row r="26" spans="1:11" ht="21" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="79" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="70"/>
-      <c r="I26" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="53"/>
-      <c r="K26" s="96"/>
-    </row>
-    <row r="27" spans="1:11" ht="20" customHeight="1">
+      <c r="J26" s="52"/>
+      <c r="K26" s="67"/>
+    </row>
+    <row r="27" spans="1:11" ht="21" customHeight="1">
       <c r="A27" s="17"/>
-      <c r="B27" s="75"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="54" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="53"/>
-      <c r="K27" s="96"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="52"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11" ht="21" customHeight="1">
       <c r="A28" s="17"/>
-      <c r="B28" s="75"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="42"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="79" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="70"/>
-      <c r="I28" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="96"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="71"/>
+      <c r="I28" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11" ht="21" customHeight="1">
       <c r="A29" s="17"/>
-      <c r="B29" s="84" t="s">
-        <v>42</v>
+      <c r="B29" s="86" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="42"/>
-      <c r="D29" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="70"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="96"/>
+      <c r="D29" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="71"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11" ht="21" customHeight="1">
       <c r="A30" s="17"/>
-      <c r="B30" s="75"/>
+      <c r="B30" s="73"/>
       <c r="C30" s="42"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="78" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="96"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="71"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:11" ht="21" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="75"/>
+      <c r="B31" s="73"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="70"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="96"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="71"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11" ht="21" customHeight="1">
       <c r="A32" s="17"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="64"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="62"/>
     </row>
     <row r="33" spans="1:11" ht="21" customHeight="1">
       <c r="A33" s="17"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="64"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="1:11" ht="21" customHeight="1">
       <c r="A34" s="17"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="64"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="62"/>
     </row>
     <row r="35" spans="1:11" ht="21" customHeight="1">
       <c r="A35" s="17"/>
@@ -2064,8 +2064,8 @@
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
     </row>
@@ -2077,8 +2077,8 @@
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="66"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
     </row>
@@ -2090,47 +2090,47 @@
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="66"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="K11:K31"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="D11:F15"/>
     <mergeCell ref="J11:J15"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="D21:F24"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:F25"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="D29:F31"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D25:F28"/>
+    <mergeCell ref="D26:F28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
+++ b/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/Stock_Analysis_Project/StockAnalytics_PandasGroup/Roadmap_TaskList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23249450-4EF7-7849-8C3A-D62496038FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0383FC8D-B266-254D-9882-55DA64C2F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29560" yWindow="500" windowWidth="36100" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29560" yWindow="500" windowWidth="36100" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Timeline" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>PROJECT TIMELINE TEMPLATE</t>
   </si>
@@ -82,9 +82,6 @@
     <t>PRESENT DAY</t>
   </si>
   <si>
-    <t>- Github Repo</t>
-  </si>
-  <si>
     <t>Tracie</t>
   </si>
   <si>
@@ -115,15 +112,9 @@
     <t>Luan</t>
   </si>
   <si>
-    <t>- Web direction | checklist</t>
-  </si>
-  <si>
     <t>- SQL database</t>
   </si>
   <si>
-    <t>on-going</t>
-  </si>
-  <si>
     <t>DAY 4</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>- Plotting all boxplot</t>
   </si>
   <si>
-    <t>by Monday, 7pm</t>
-  </si>
-  <si>
     <t>Tracie | Luan</t>
   </si>
   <si>
@@ -184,17 +172,59 @@
     <t xml:space="preserve">- Flask | Api </t>
   </si>
   <si>
-    <t>- fix javascript problem</t>
-  </si>
-  <si>
-    <t>- Push all into domain if have time</t>
+    <t>- Github Repo Manager</t>
+  </si>
+  <si>
+    <t>- Web direction | Task list &amp; timeline management</t>
+  </si>
+  <si>
+    <t>on-fixing</t>
+  </si>
+  <si>
+    <t>- Push all into github.io</t>
+  </si>
+  <si>
+    <t>James|Luan|Tracie</t>
+  </si>
+  <si>
+    <t>fine-tune content (text)</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>almost completed</t>
+  </si>
+  <si>
+    <t>- polish | finish  the home page</t>
+  </si>
+  <si>
+    <t>- each member to send short bio &amp; pic to Luan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tracie bio + pic</t>
+  </si>
+  <si>
+    <t>Luan bio + pic</t>
+  </si>
+  <si>
+    <t>Brandon bio + pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James </t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>deliverables</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="50">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -402,17 +432,6 @@
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFB45F06"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFCC0000"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF38761D"/>
@@ -466,8 +485,31 @@
       <color theme="5" tint="-0.249977111117893"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF7030A0"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,24 +578,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFF8F8F8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -831,11 +861,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC76121"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC76121"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,28 +1031,22 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="38" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="42" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="45" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="40" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1017,19 +1061,75 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
@@ -1038,14 +1138,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1065,77 +1160,90 @@
     <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="48" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,10 +1564,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1471,12 +1579,13 @@
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="64" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1">
+    <row r="1" spans="1:12" ht="21" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1487,24 +1596,26 @@
       <c r="H1" s="4"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1">
+      <c r="K1" s="5"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1">
+      <c r="K2" s="121"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="21" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1515,9 +1626,10 @@
       <c r="H3" s="8"/>
       <c r="I3" s="9"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1">
+      <c r="K3" s="10"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="21" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>1</v>
@@ -1532,9 +1644,10 @@
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1">
+      <c r="K4" s="14"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -1549,9 +1662,10 @@
       <c r="H5" s="16"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="21" customHeight="1">
+      <c r="K5" s="14"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="21" customHeight="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1562,9 +1676,10 @@
       <c r="H6" s="19"/>
       <c r="I6" s="20"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1">
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="1:12" ht="21" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -1575,9 +1690,10 @@
       <c r="H7" s="19"/>
       <c r="I7" s="20"/>
       <c r="J7" s="18"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="21" customHeight="1">
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" ht="21" customHeight="1">
       <c r="A8" s="21"/>
       <c r="B8" s="22" t="s">
         <v>5</v>
@@ -1596,9 +1712,12 @@
       <c r="J8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1">
+      <c r="K8" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="21" customHeight="1">
       <c r="A9" s="27"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1609,9 +1728,10 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="1:11" ht="21" customHeight="1">
+      <c r="K9" s="122"/>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="34"/>
@@ -1624,19 +1744,20 @@
       <c r="H10" s="36"/>
       <c r="I10" s="38"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" ht="21" customHeight="1">
+      <c r="K10" s="123"/>
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="92" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="70" t="s">
         <v>12</v>
       </c>
@@ -1644,479 +1765,617 @@
       <c r="I11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="124"/>
+      <c r="L11" s="88" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="21" customHeight="1">
+    <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="73"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="70" t="s">
-        <v>16</v>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="107" t="s">
+        <v>46</v>
       </c>
       <c r="H12" s="71"/>
       <c r="I12" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="96"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="89"/>
+    </row>
+    <row r="13" spans="1:12" ht="21" customHeight="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="70" t="s">
         <v>17</v>
-      </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" ht="21" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="70" t="s">
-        <v>18</v>
       </c>
       <c r="H13" s="71"/>
       <c r="I13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="77"/>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11" ht="21" customHeight="1">
+      <c r="J13" s="96"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="89"/>
+    </row>
+    <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="73"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
       <c r="G14" s="70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="71"/>
       <c r="I14" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="77"/>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" ht="21" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="96"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="89"/>
+    </row>
+    <row r="15" spans="1:12" ht="21" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="73"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="45"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="99"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="69"/>
       <c r="I15" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="1:11" ht="21" customHeight="1">
+      <c r="J15" s="97"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="89"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1">
       <c r="A16" s="17"/>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="96" t="s">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="72" t="s">
         <v>22</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="92" t="s">
-        <v>23</v>
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11" ht="21" customHeight="1">
+      <c r="K16" s="126"/>
+      <c r="L16" s="89"/>
+    </row>
+    <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="73"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="101" t="s">
-        <v>46</v>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="73" t="s">
+        <v>42</v>
       </c>
       <c r="H17" s="71"/>
       <c r="I17" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="126"/>
+      <c r="L17" s="89"/>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1">
+      <c r="A18" s="17"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="71"/>
+      <c r="I18" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" ht="21" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="101" t="s">
+      <c r="J18" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="126"/>
+      <c r="L18" s="89"/>
+    </row>
+    <row r="19" spans="1:12" ht="21" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="73" t="s">
         <v>47</v>
-      </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" s="67"/>
-    </row>
-    <row r="19" spans="1:11" ht="21" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="92" t="s">
-        <v>27</v>
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="K19" s="67"/>
-    </row>
-    <row r="20" spans="1:11" ht="21" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="K19" s="126"/>
+      <c r="L19" s="89"/>
+    </row>
+    <row r="20" spans="1:12" ht="21" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="73"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="93" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="75"/>
+      <c r="I20" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="126"/>
+      <c r="L20" s="89"/>
+    </row>
+    <row r="21" spans="1:12" ht="21" customHeight="1">
+      <c r="A21" s="17"/>
+      <c r="B21" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="67"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="79" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="80" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="82" t="s">
-        <v>41</v>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="101" t="s">
+        <v>38</v>
       </c>
       <c r="H21" s="71"/>
       <c r="I21" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="K21" s="67"/>
-    </row>
-    <row r="22" spans="1:11" ht="21" customHeight="1">
+        <v>16</v>
+      </c>
+      <c r="J21" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="127"/>
+      <c r="L21" s="89"/>
+    </row>
+    <row r="22" spans="1:12" ht="21" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="73"/>
+      <c r="B22" s="77"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="82" t="s">
-        <v>42</v>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="H22" s="71"/>
       <c r="I22" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="127"/>
+      <c r="L22" s="89"/>
+    </row>
+    <row r="23" spans="1:12" ht="21" customHeight="1">
+      <c r="A23" s="17"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="82"/>
+      <c r="I23" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="128"/>
+      <c r="L23" s="89"/>
+    </row>
+    <row r="24" spans="1:12" s="63" customFormat="1" ht="21" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="87"/>
+      <c r="I24" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="128"/>
+      <c r="L24" s="89"/>
+    </row>
+    <row r="25" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="84"/>
+      <c r="I25" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="1:11" ht="21" customHeight="1">
-      <c r="A23" s="17"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="103"/>
-      <c r="I23" s="104" t="s">
+      <c r="K25" s="128"/>
+      <c r="L25" s="89"/>
+    </row>
+    <row r="26" spans="1:12" ht="24" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="129"/>
+      <c r="L26" s="89"/>
+    </row>
+    <row r="27" spans="1:12" ht="21" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="71"/>
+      <c r="I27" s="111" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="50"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="89"/>
+    </row>
+    <row r="28" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="115"/>
+      <c r="I28" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="50"/>
+      <c r="K28" s="130"/>
+      <c r="L28" s="89"/>
+    </row>
+    <row r="29" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="115"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="89"/>
+    </row>
+    <row r="30" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="113" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="114"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="130"/>
+      <c r="L30" s="89"/>
+    </row>
+    <row r="31" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="114"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="130"/>
+      <c r="L31" s="89"/>
+    </row>
+    <row r="32" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="114"/>
+      <c r="I32" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="50"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="89"/>
+    </row>
+    <row r="33" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="119" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="120" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="50"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="89"/>
+    </row>
+    <row r="34" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="119" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="111"/>
+      <c r="J34" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="130"/>
+      <c r="L34" s="89"/>
+    </row>
+    <row r="35" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" s="71"/>
+      <c r="I35" s="118" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="50"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="89"/>
+    </row>
+    <row r="36" spans="1:12" ht="21" customHeight="1">
+      <c r="A36" s="17"/>
+      <c r="B36" s="105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="105" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="1:11" s="65" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="73"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="106"/>
-      <c r="I24" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="105"/>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="1:11" ht="21" customHeight="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="1:11" ht="24" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="88" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="89"/>
-      <c r="I26" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="1:11" ht="21" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="1:11" ht="21" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" ht="21" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="86" t="s">
+      <c r="H36" s="71"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="89"/>
+    </row>
+    <row r="37" spans="1:12" ht="21" customHeight="1">
+      <c r="A37" s="17"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="83" t="s">
+      <c r="H37" s="71"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="131"/>
+      <c r="L37" s="89"/>
+    </row>
+    <row r="38" spans="1:12" ht="21" customHeight="1">
+      <c r="A38" s="17"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="1:11" ht="21" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="73"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="73"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="87" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="1:11" ht="21" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="1:11" ht="21" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="62"/>
-    </row>
-    <row r="33" spans="1:11" ht="21" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="62"/>
-    </row>
-    <row r="35" spans="1:11" ht="21" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="1:11" ht="21" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="1:11" ht="21" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="131"/>
+      <c r="L38" s="89"/>
+    </row>
+    <row r="39" spans="1:12" ht="21" customHeight="1">
+      <c r="A39" s="17"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="60"/>
+    </row>
+    <row r="40" spans="1:12" ht="21" customHeight="1">
+      <c r="A40" s="17"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="60"/>
+    </row>
+    <row r="41" spans="1:12" ht="21" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+    </row>
+    <row r="42" spans="1:12" ht="21" customHeight="1">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" ht="21" customHeight="1">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" ht="21" customHeight="1">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="K11:K31"/>
+  <mergeCells count="39">
+    <mergeCell ref="L11:L38"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="B11:B15"/>
@@ -2126,11 +2385,35 @@
     <mergeCell ref="D21:F25"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D29:F31"/>
-    <mergeCell ref="D26:F28"/>
-    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="D36:F38"/>
+    <mergeCell ref="D26:F35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:F20"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
+++ b/Roadmap_TaskList/Project_TaskList_Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/Stock_Analysis_Project/StockAnalytics_PandasGroup/Roadmap_TaskList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocdiep/data_class/Stock_Analysis_Project/StockAnalytics/Roadmap_TaskList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0383FC8D-B266-254D-9882-55DA64C2F248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18E666-1C82-8F4A-9BC1-0BF8E5A0EAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29560" yWindow="500" windowWidth="36100" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>PROJECT TIMELINE TEMPLATE</t>
   </si>
@@ -130,9 +130,6 @@
     <t>- Link all plot.js to html &amp; css</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
     <t>FINAL DAY</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>- Home page</t>
   </si>
   <si>
-    <t>- Data source page</t>
-  </si>
-  <si>
     <t>- Industry 3 pages</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>- Plotting all bubble charts</t>
   </si>
   <si>
-    <t>- Plotting all boxplot</t>
-  </si>
-  <si>
     <t>Tracie | Luan</t>
   </si>
   <si>
@@ -178,15 +169,9 @@
     <t>- Web direction | Task list &amp; timeline management</t>
   </si>
   <si>
-    <t>on-fixing</t>
-  </si>
-  <si>
     <t>- Push all into github.io</t>
   </si>
   <si>
-    <t>James|Luan|Tracie</t>
-  </si>
-  <si>
     <t>fine-tune content (text)</t>
   </si>
   <si>
@@ -202,22 +187,34 @@
     <t>- each member to send short bio &amp; pic to Luan</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tracie bio + pic</t>
-  </si>
-  <si>
-    <t>Luan bio + pic</t>
-  </si>
-  <si>
-    <t>Brandon bio + pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">James </t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
     <t>deliverables</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Tracie | James</t>
+  </si>
+  <si>
+    <t>- Plotting all candle stick</t>
+  </si>
+  <si>
+    <t>- about us</t>
+  </si>
+  <si>
+    <t>Tracie|Brandon|Ari|James</t>
+  </si>
+  <si>
+    <t>- Analysis writting</t>
+  </si>
+  <si>
+    <t>- outlier maths &amp; analysis writting</t>
+  </si>
+  <si>
+    <t>- Read me file writting link to Homepage</t>
+  </si>
+  <si>
+    <t>James|Luan</t>
   </si>
 </sst>
 </file>
@@ -416,12 +413,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FFB85B22"/>
       <name val="Roboto"/>
@@ -508,8 +499,14 @@
       <color rgb="FF0070C0"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,12 +573,6 @@
         <bgColor rgb="FF351C75"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="27">
     <border>
@@ -885,7 +876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1022,9 +1013,6 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,19 +1022,16 @@
     <xf numFmtId="0" fontId="27" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="40" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="43" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="39" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="42" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1061,16 +1046,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1078,57 +1063,55 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="49" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -1138,9 +1121,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,97 +1141,92 @@
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="48" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="48" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="46" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="40" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="48" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,10 +1547,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
@@ -1579,9 +1562,9 @@
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" style="64" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1640625" style="62" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1601,18 +1584,18 @@
     </row>
     <row r="2" spans="1:12" ht="21" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
-      <c r="K2" s="121"/>
+      <c r="K2" s="71"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="21" customHeight="1">
@@ -1713,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="25" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="L8" s="26"/>
     </row>
@@ -1728,7 +1711,7 @@
       <c r="H9" s="29"/>
       <c r="I9" s="30"/>
       <c r="J9" s="31"/>
-      <c r="K9" s="122"/>
+      <c r="K9" s="72"/>
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
@@ -1744,592 +1727,602 @@
       <c r="H10" s="36"/>
       <c r="I10" s="38"/>
       <c r="J10" s="39"/>
-      <c r="K10" s="123"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="40"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1">
       <c r="A11" s="41"/>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="88" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="42"/>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="70" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="87"/>
       <c r="I11" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="95" t="s">
+      <c r="J11" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="124"/>
-      <c r="L11" s="88" t="s">
+      <c r="K11" s="74"/>
+      <c r="L11" s="82" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="107" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="71"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="87"/>
       <c r="I12" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J12" s="96"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="89"/>
+        <v>38</v>
+      </c>
+      <c r="J12" s="93"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="83"/>
     </row>
     <row r="13" spans="1:12" ht="21" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="70" t="s">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="96"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="89"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="83"/>
     </row>
     <row r="14" spans="1:12" ht="21" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="77"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="70" t="s">
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="87"/>
       <c r="I14" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="96"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="89"/>
-    </row>
-    <row r="15" spans="1:12" ht="21" customHeight="1">
+      <c r="J14" s="93"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" s="66" customFormat="1" ht="21" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="68" t="s">
+      <c r="B15" s="89"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="123" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="126"/>
+      <c r="I15" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="93"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="83"/>
+    </row>
+    <row r="16" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="A16" s="17"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="69"/>
-      <c r="I15" s="43" t="s">
+      <c r="H16" s="122"/>
+      <c r="I16" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="97"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="89"/>
-    </row>
-    <row r="16" spans="1:12" ht="21" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="126"/>
-      <c r="L16" s="89"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="83"/>
     </row>
     <row r="17" spans="1:12" ht="21" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="77"/>
+      <c r="B17" s="118" t="s">
+        <v>20</v>
+      </c>
       <c r="C17" s="42"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="73" t="s">
-        <v>42</v>
-      </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J17" s="47" t="s">
+      <c r="D17" s="119" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="87"/>
+      <c r="I17" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="126"/>
-      <c r="L17" s="89"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="83"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
       <c r="A18" s="17"/>
-      <c r="B18" s="77"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="47" t="s">
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="87"/>
+      <c r="I18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="126"/>
-      <c r="L18" s="89"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="83"/>
     </row>
     <row r="19" spans="1:12" ht="21" customHeight="1">
       <c r="A19" s="17"/>
-      <c r="B19" s="77"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="47" t="s">
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="115" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="87"/>
+      <c r="I19" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="126"/>
-      <c r="L19" s="89"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="83"/>
     </row>
     <row r="20" spans="1:12" ht="21" customHeight="1">
       <c r="A20" s="17"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="75"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="115" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="87"/>
       <c r="I20" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="47" t="s">
+      <c r="J20" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="126"/>
-      <c r="L20" s="89"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="83"/>
     </row>
     <row r="21" spans="1:12" ht="21" customHeight="1">
       <c r="A21" s="17"/>
-      <c r="B21" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="71"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="117"/>
       <c r="I21" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="127"/>
-      <c r="L21" s="89"/>
+      <c r="J21" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="76"/>
+      <c r="L21" s="83"/>
     </row>
     <row r="22" spans="1:12" ht="21" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="77"/>
+      <c r="B22" s="95" t="s">
+        <v>27</v>
+      </c>
       <c r="C22" s="42"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="71"/>
-      <c r="I22" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="J22" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="127"/>
-      <c r="L22" s="89"/>
+      <c r="D22" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="87"/>
+      <c r="I22" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="77"/>
+      <c r="L22" s="83"/>
     </row>
     <row r="23" spans="1:12" ht="21" customHeight="1">
       <c r="A23" s="17"/>
-      <c r="B23" s="77"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="82"/>
-      <c r="I23" s="65" t="s">
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="87"/>
+      <c r="I23" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="77"/>
+      <c r="L23" s="83"/>
+    </row>
+    <row r="24" spans="1:12" ht="21" customHeight="1">
+      <c r="A24" s="17"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="107" t="s">
+        <v>54</v>
+      </c>
+      <c r="H24" s="108"/>
+      <c r="I24" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="J24" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="78"/>
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="1:12" s="61" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="107" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="114"/>
+      <c r="I25" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="78"/>
+      <c r="L25" s="83"/>
+    </row>
+    <row r="26" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="109" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="78"/>
+      <c r="L26" s="83"/>
+    </row>
+    <row r="27" spans="1:12" ht="24" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="42"/>
+      <c r="D27" s="100" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="112"/>
+      <c r="I27" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="83"/>
+    </row>
+    <row r="28" spans="1:12" ht="21" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="87"/>
+      <c r="I28" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="80"/>
+      <c r="L28" s="83"/>
+    </row>
+    <row r="29" spans="1:12" s="62" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="106"/>
+      <c r="I29" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="80"/>
+      <c r="L29" s="83"/>
+    </row>
+    <row r="30" spans="1:12" s="62" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="106"/>
+      <c r="I30" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="80"/>
+      <c r="L30" s="83"/>
+    </row>
+    <row r="31" spans="1:12" s="66" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="105" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="106"/>
+      <c r="I31" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="80"/>
+      <c r="L31" s="83"/>
+    </row>
+    <row r="32" spans="1:12" s="66" customFormat="1" ht="21" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="105" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="106"/>
+      <c r="I32" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="80"/>
+      <c r="L32" s="83"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1" thickBot="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="87"/>
+      <c r="I33" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="49"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="83"/>
+    </row>
+    <row r="34" spans="1:12" ht="21" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="J23" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="89"/>
-    </row>
-    <row r="24" spans="1:12" s="63" customFormat="1" ht="21" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="89"/>
-    </row>
-    <row r="25" spans="1:12" ht="21" customHeight="1" thickBot="1">
-      <c r="A25" s="17"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="84"/>
-      <c r="I25" s="67" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="87"/>
+      <c r="I34" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="J25" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="89"/>
-    </row>
-    <row r="26" spans="1:12" ht="24" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="106" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="J26" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="129"/>
-      <c r="L26" s="89"/>
-    </row>
-    <row r="27" spans="1:12" ht="21" customHeight="1">
-      <c r="A27" s="17"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" s="71"/>
-      <c r="I27" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="J27" s="50"/>
-      <c r="K27" s="130"/>
-      <c r="L27" s="89"/>
-    </row>
-    <row r="28" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="H28" s="115"/>
-      <c r="I28" s="111" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="50"/>
-      <c r="K28" s="130"/>
-      <c r="L28" s="89"/>
-    </row>
-    <row r="29" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="86" t="s">
+      <c r="J34" s="51"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="83"/>
+    </row>
+    <row r="35" spans="1:12" ht="21" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="115"/>
-      <c r="I29" s="111"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="89"/>
-    </row>
-    <row r="30" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="113" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="114"/>
-      <c r="I30" s="111"/>
-      <c r="J30" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="130"/>
-      <c r="L30" s="89"/>
-    </row>
-    <row r="31" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="113" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="114"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="130"/>
-      <c r="L31" s="89"/>
-    </row>
-    <row r="32" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="H32" s="114"/>
-      <c r="I32" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" s="50"/>
-      <c r="K32" s="130"/>
-      <c r="L32" s="89"/>
-    </row>
-    <row r="33" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="119" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="120" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" s="50"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="89"/>
-    </row>
-    <row r="34" spans="1:12" s="64" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="I34" s="111"/>
-      <c r="J34" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K34" s="130"/>
-      <c r="L34" s="89"/>
-    </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1" thickBot="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="71"/>
-      <c r="I35" s="118" t="s">
-        <v>50</v>
-      </c>
-      <c r="J35" s="50"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="89"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="51"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="83"/>
     </row>
     <row r="36" spans="1:12" ht="21" customHeight="1">
       <c r="A36" s="17"/>
-      <c r="B36" s="105" t="s">
-        <v>33</v>
-      </c>
+      <c r="B36" s="89"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="80" t="s">
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="51"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="129" t="s">
+        <v>56</v>
+      </c>
       <c r="J36" s="52"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="89"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="83"/>
     </row>
     <row r="37" spans="1:12" ht="21" customHeight="1">
       <c r="A37" s="17"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="71"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="52"/>
-      <c r="K37" s="131"/>
-      <c r="L37" s="89"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="58"/>
     </row>
     <row r="38" spans="1:12" ht="21" customHeight="1">
       <c r="A38" s="17"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="71"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="131"/>
-      <c r="L38" s="89"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="58"/>
     </row>
     <row r="39" spans="1:12" ht="21" customHeight="1">
       <c r="A39" s="17"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="60"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="58"/>
     </row>
     <row r="40" spans="1:12" ht="21" customHeight="1">
       <c r="A40" s="17"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="60"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
     </row>
     <row r="41" spans="1:12" ht="21" customHeight="1">
       <c r="A41" s="17"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
     </row>
     <row r="42" spans="1:12" ht="21" customHeight="1">
       <c r="A42" s="17"/>
@@ -2339,81 +2332,53 @@
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="60"/>
       <c r="J42" s="17"/>
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="1:12" ht="21" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-    </row>
-    <row r="44" spans="1:12" ht="21" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="L11:L38"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B11:B15"/>
-    <mergeCell ref="D11:F15"/>
-    <mergeCell ref="J11:J15"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:F25"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="D36:F38"/>
-    <mergeCell ref="D26:F35"/>
-    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B26:B35"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G24:H24"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G30:H30"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="D16:F20"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="L11:L36"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="D11:F16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:F26"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D34:F36"/>
+    <mergeCell ref="D27:F33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
